--- a/SubRES_TMPL/SubRES_IMP_CO2.xlsx
+++ b/SubRES_TMPL/SubRES_IMP_CO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1692AC69-A272-4385-8ED7-4E57E3632D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6701BFF1-5D01-4FAC-A579-AF71C65375E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 Pipeline" sheetId="1" r:id="rId1"/>
@@ -1789,7 +1789,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>604789</xdr:colOff>
+      <xdr:colOff>355972</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>16154</xdr:rowOff>
     </xdr:to>
@@ -2095,10 +2095,13 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -2942,8 +2945,8 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3720,13 +3723,22 @@
   </sheetPr>
   <dimension ref="B2:T119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A4" zoomScale="57" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:20" ht="18">
@@ -3891,12 +3903,12 @@
         <v>66</v>
       </c>
       <c r="Q14">
-        <f>P10*100</f>
-        <v>12.857142857142856</v>
+        <f>P10*200</f>
+        <v>25.714285714285712</v>
       </c>
       <c r="R14">
-        <f>Q10*100</f>
-        <v>11.428571428571429</v>
+        <f>Q10*200</f>
+        <v>22.857142857142858</v>
       </c>
       <c r="T14" t="s">
         <v>67</v>
@@ -3913,12 +3925,12 @@
         <v>365.57440000000003</v>
       </c>
       <c r="Q15">
-        <f>P11*100</f>
-        <v>25.714285714285712</v>
+        <f>P11*200</f>
+        <v>51.428571428571423</v>
       </c>
       <c r="R15">
-        <f>Q11*100</f>
-        <v>21.428571428571427</v>
+        <f>Q11*200</f>
+        <v>42.857142857142854</v>
       </c>
     </row>
     <row r="16" spans="3:20">
@@ -3938,11 +3950,11 @@
       </c>
       <c r="S18">
         <f>Q14*$Q$19</f>
-        <v>4.6285714285714277E-5</v>
+        <v>9.2571428571428554E-5</v>
       </c>
       <c r="T18">
         <f>R14*$Q$19</f>
-        <v>4.1142857142857139E-5</v>
+        <v>8.2285714285714278E-5</v>
       </c>
     </row>
     <row r="19" spans="2:20">
@@ -3960,11 +3972,11 @@
       </c>
       <c r="S19">
         <f>Q15*$Q$19</f>
-        <v>9.2571428571428554E-5</v>
+        <v>1.8514285714285711E-4</v>
       </c>
       <c r="T19">
         <f>R15*$Q$19</f>
-        <v>7.714285714285714E-5</v>
+        <v>1.5428571428571428E-4</v>
       </c>
     </row>
     <row r="20" spans="2:20">
@@ -5277,8 +5289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDECDB1-7596-43C6-AB29-D7BD6943B50C}">
   <dimension ref="C3:AF19"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5680,9 +5692,7 @@
       </c>
       <c r="L14" s="78"/>
       <c r="M14" s="78"/>
-      <c r="N14" s="78">
-        <v>0.95</v>
-      </c>
+      <c r="N14" s="78"/>
       <c r="O14" s="79">
         <v>40</v>
       </c>
@@ -5720,7 +5730,7 @@
       <c r="J15" s="71"/>
       <c r="L15">
         <f>'CO2'!S19/10</f>
-        <v>9.2571428571428561E-6</v>
+        <v>1.8514285714285712E-5</v>
       </c>
       <c r="T15" s="77"/>
       <c r="Y15" t="s">
@@ -5761,9 +5771,6 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="N16">
-        <v>0.95</v>
-      </c>
       <c r="O16" s="75">
         <v>40</v>
       </c>
@@ -5813,7 +5820,7 @@
       </c>
       <c r="L17">
         <f>'CO2'!S19/10</f>
-        <v>9.2571428571428561E-6</v>
+        <v>1.8514285714285712E-5</v>
       </c>
     </row>
     <row r="18" spans="5:18">
@@ -5829,9 +5836,6 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="N18">
-        <v>0.95</v>
-      </c>
       <c r="O18" s="75">
         <v>40</v>
       </c>
@@ -5856,7 +5860,7 @@
       </c>
       <c r="L19">
         <f>'CO2'!T19/10</f>
-        <v>7.714285714285714E-6</v>
+        <v>1.5428571428571428E-5</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_IMP_CO2.xlsx
+++ b/SubRES_TMPL/SubRES_IMP_CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6701BFF1-5D01-4FAC-A579-AF71C65375E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4801A6-96C4-4F01-8964-413228BE497C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 Pipeline" sheetId="1" r:id="rId1"/>
@@ -3723,8 +3723,8 @@
   </sheetPr>
   <dimension ref="B2:T119"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="57" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="57" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5289,13 +5289,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDECDB1-7596-43C6-AB29-D7BD6943B50C}">
   <dimension ref="C3:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:32">
@@ -5700,14 +5701,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="78">
-        <f>'CO2'!M14/1000</f>
-        <v>5.9272</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="78">
         <f>'CO2'!M16/1000</f>
         <v>0.28332015999999999</v>
       </c>
-      <c r="S14" s="78"/>
+      <c r="S14" s="78">
+        <f>'CO2'!M14/1000</f>
+        <v>5.9272</v>
+      </c>
       <c r="T14" s="80"/>
       <c r="Y14" s="73" t="s">
         <v>136</v>
@@ -5778,13 +5781,16 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>'CO2'!M14/1000</f>
-        <v>5.9272</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>'CO2'!M16/1000</f>
         <v>0.28332015999999999</v>
       </c>
+      <c r="S16">
+        <f>'CO2'!M14/1000</f>
+        <v>5.9272</v>
+      </c>
       <c r="T16" s="77"/>
       <c r="Y16" t="s">
         <v>138</v>
@@ -5811,7 +5817,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="5:18">
+    <row r="17" spans="5:19">
       <c r="E17" t="s">
         <v>137</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>1.8514285714285712E-5</v>
       </c>
     </row>
-    <row r="18" spans="5:18">
+    <row r="18" spans="5:19">
       <c r="F18" t="s">
         <v>118</v>
       </c>
@@ -5843,15 +5849,18 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>'CO2'!N14/1000</f>
-        <v>4.78</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>'CO2'!N16/1000</f>
         <v>0.22848399999999999</v>
       </c>
-    </row>
-    <row r="19" spans="5:18">
+      <c r="S18">
+        <f>'CO2'!N14/1000</f>
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19">
       <c r="E19" t="s">
         <v>137</v>
       </c>
